--- a/tmc_qc_25m.xlsx
+++ b/tmc_qc_25m.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="196">
   <si>
     <t>CELESTE</t>
   </si>
@@ -537,9 +537,6 @@
     <t>MARKBROOK</t>
   </si>
   <si>
-    <t>130M W OF MARINE PARADE</t>
-  </si>
-  <si>
     <t>PATON</t>
   </si>
   <si>
@@ -558,21 +555,12 @@
     <t>CASSANDRA</t>
   </si>
   <si>
-    <t>MARINE PARADE</t>
-  </si>
-  <si>
     <t>DYNAMIC</t>
   </si>
   <si>
     <t>PASSMORE</t>
   </si>
   <si>
-    <t>PARK LAWN</t>
-  </si>
-  <si>
-    <t>175M N OF LAKE SHORE BLVD W</t>
-  </si>
-  <si>
     <t>arterycode</t>
   </si>
   <si>
@@ -618,7 +606,13 @@
     <t>OK</t>
   </si>
   <si>
-    <t>need to check</t>
+    <t>OK (no CL exists for hospital entrance)</t>
+  </si>
+  <si>
+    <t>OK (no CL break exists for PX)</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
   </si>
 </sst>
 </file>
@@ -633,12 +627,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -653,12 +659,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,31 +965,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -997,8 +1008,8 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>191</v>
+      <c r="I2" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1018,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1038,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1058,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1098,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1118,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1158,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1198,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1218,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1238,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1278,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1297,8 +1308,8 @@
       <c r="H17" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>191</v>
+      <c r="I17" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1317,7 +1328,7 @@
       <c r="H18" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1336,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1356,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1376,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1396,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1416,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5009</v>
       </c>
@@ -1435,8 +1446,8 @@
       <c r="H24" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>197</v>
+      <c r="I24" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1455,7 +1466,7 @@
       <c r="H25" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1473,6 +1484,9 @@
       <c r="H26" t="s">
         <v>2</v>
       </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1490,6 +1504,9 @@
       <c r="H27" t="s">
         <v>16</v>
       </c>
+      <c r="I27" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1507,6 +1524,9 @@
       <c r="H28" t="s">
         <v>5</v>
       </c>
+      <c r="I28" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1524,6 +1544,9 @@
       <c r="H29" t="s">
         <v>2</v>
       </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -1541,6 +1564,9 @@
       <c r="H30" t="s">
         <v>2</v>
       </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -1558,6 +1584,9 @@
       <c r="H31" t="s">
         <v>2</v>
       </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1575,8 +1604,11 @@
       <c r="H32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5473</v>
       </c>
@@ -1592,8 +1624,11 @@
       <c r="H33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5489</v>
       </c>
@@ -1609,8 +1644,11 @@
       <c r="H34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5561</v>
       </c>
@@ -1626,8 +1664,11 @@
       <c r="H35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5619</v>
       </c>
@@ -1643,8 +1684,11 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5619</v>
       </c>
@@ -1660,8 +1704,9 @@
       <c r="H37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5648</v>
       </c>
@@ -1677,8 +1722,11 @@
       <c r="H38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5673</v>
       </c>
@@ -1694,8 +1742,11 @@
       <c r="H39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5688</v>
       </c>
@@ -1711,8 +1762,11 @@
       <c r="H40" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5688</v>
       </c>
@@ -1728,8 +1782,11 @@
       <c r="H41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5714</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="H42" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5772</v>
       </c>
@@ -1762,8 +1822,11 @@
       <c r="H43" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5822</v>
       </c>
@@ -1779,8 +1842,11 @@
       <c r="H44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5826</v>
       </c>
@@ -1796,8 +1862,11 @@
       <c r="H45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5851</v>
       </c>
@@ -1813,8 +1882,11 @@
       <c r="H46" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5978</v>
       </c>
@@ -1830,8 +1902,11 @@
       <c r="H47" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6056</v>
       </c>
@@ -1847,8 +1922,11 @@
       <c r="H48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6386</v>
       </c>
@@ -1864,8 +1942,11 @@
       <c r="H49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6446</v>
       </c>
@@ -1881,8 +1962,11 @@
       <c r="H50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6446</v>
       </c>
@@ -1898,8 +1982,9 @@
       <c r="H51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6481</v>
       </c>
@@ -1915,8 +2000,11 @@
       <c r="H52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6854</v>
       </c>
@@ -1932,8 +2020,11 @@
       <c r="H53" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7252</v>
       </c>
@@ -1949,8 +2040,11 @@
       <c r="H54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8143</v>
       </c>
@@ -1961,183 +2055,216 @@
         <v>79</v>
       </c>
       <c r="E55">
-        <v>30068875</v>
+        <v>30068876</v>
       </c>
       <c r="H55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8143</v>
+        <v>11123</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56">
-        <v>30068876</v>
+        <v>30030409</v>
       </c>
       <c r="H56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>11123</v>
+        <v>11248</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E57">
-        <v>30030409</v>
+        <v>30080625</v>
       </c>
       <c r="H57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>11248</v>
+        <v>11299</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E58">
-        <v>30080625</v>
+        <v>30010686</v>
       </c>
       <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>11660</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59">
+        <v>20050189</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>11666</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>30021760</v>
+      </c>
+      <c r="H60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>11683</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>30003558</v>
+      </c>
+      <c r="H61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>11299</v>
-      </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59">
-        <v>30010686</v>
-      </c>
-      <c r="H59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>11660</v>
-      </c>
-      <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60">
-        <v>20050189</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>11666</v>
-      </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61">
-        <v>30021760</v>
-      </c>
-      <c r="H61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>11683</v>
+        <v>12085</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E62">
-        <v>30003558</v>
+        <v>14130691</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>12085</v>
+        <v>14543</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>14130691</v>
+        <v>14663224</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>14543</v>
+        <v>14545</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E64">
-        <v>14663224</v>
+        <v>14024681</v>
       </c>
       <c r="H64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>14545</v>
+        <v>14947</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E65">
-        <v>14024681</v>
+        <v>20235971</v>
       </c>
       <c r="H65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>14947</v>
       </c>
@@ -2148,115 +2275,134 @@
         <v>95</v>
       </c>
       <c r="E66">
-        <v>20235971</v>
+        <v>20235984</v>
       </c>
       <c r="H66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>14947</v>
+        <v>20558</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67">
-        <v>20235984</v>
+        <v>30062704</v>
       </c>
       <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>23214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68">
+        <v>30004523</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>23821</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <v>30067250</v>
+      </c>
+      <c r="H69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>20558</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68">
-        <v>30062704</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>24181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70">
+        <v>6292612</v>
+      </c>
+      <c r="H70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>23214</v>
-      </c>
-      <c r="C69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69">
-        <v>30004523</v>
-      </c>
-      <c r="H69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>23821</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70">
-        <v>30067250</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>24681</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71">
+        <v>8649068</v>
+      </c>
+      <c r="H71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>24181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71">
-        <v>6292612</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>24681</v>
+        <v>24761</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72">
-        <v>8649068</v>
+        <v>20111567</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>24761</v>
       </c>
@@ -2267,421 +2413,494 @@
         <v>105</v>
       </c>
       <c r="E73">
-        <v>20111567</v>
+        <v>30015173</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>24761</v>
+        <v>24765</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74">
-        <v>30015173</v>
+        <v>30044216</v>
       </c>
       <c r="H74" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>25111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <v>9655498</v>
+      </c>
+      <c r="H75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>24765</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="I75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>25116</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76">
+        <v>30064797</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>26227</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77">
+        <v>30058200</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>26356</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78">
+        <v>30003755</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>26361</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79">
+        <v>2842441</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>26815</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80">
+        <v>30037084</v>
+      </c>
+      <c r="H80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>27311</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" t="s">
         <v>106</v>
       </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75">
-        <v>30044216</v>
-      </c>
-      <c r="H75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>25111</v>
-      </c>
-      <c r="C76" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76">
-        <v>9655498</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="E81">
+        <v>30062848</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>27695</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82">
+        <v>30001463</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>28096</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83">
+        <v>2676350</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>28100</v>
+      </c>
+      <c r="C84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>111336</v>
+      </c>
+      <c r="H84" t="s">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>28419</v>
+      </c>
+      <c r="C85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85">
+        <v>111137</v>
+      </c>
+      <c r="H85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>25116</v>
-      </c>
-      <c r="C77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77">
-        <v>30064797</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>26227</v>
-      </c>
-      <c r="C78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
-      <c r="E78">
-        <v>30058200</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>26356</v>
-      </c>
-      <c r="C79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79">
-        <v>30003755</v>
-      </c>
-      <c r="H79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>26361</v>
-      </c>
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80">
-        <v>2842441</v>
-      </c>
-      <c r="H80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>26815</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81">
-        <v>30037084</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>28956</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86">
+        <v>12353189</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>28989</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87">
+        <v>30040846</v>
+      </c>
+      <c r="H87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>27311</v>
-      </c>
-      <c r="C82" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82">
-        <v>30062848</v>
-      </c>
-      <c r="H82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>27695</v>
-      </c>
-      <c r="C83" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83">
-        <v>30001463</v>
-      </c>
-      <c r="H83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>28096</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>122</v>
-      </c>
-      <c r="E84">
-        <v>2676350</v>
-      </c>
-      <c r="H84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>28100</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>111336</v>
-      </c>
-      <c r="H85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>28419</v>
-      </c>
-      <c r="C86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86">
-        <v>111137</v>
-      </c>
-      <c r="H86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>28956</v>
-      </c>
-      <c r="C87" t="s">
-        <v>126</v>
-      </c>
-      <c r="D87" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87">
-        <v>12353189</v>
-      </c>
-      <c r="H87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>28989</v>
+        <v>29159</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="E88">
-        <v>30040846</v>
+        <v>8680556</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>29159</v>
+        <v>29507</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="E89">
-        <v>8680556</v>
+        <v>30087939</v>
       </c>
       <c r="H89" t="s">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>29610</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90">
+        <v>30073292</v>
+      </c>
+      <c r="H90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>29507</v>
-      </c>
-      <c r="C90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" t="s">
-        <v>131</v>
-      </c>
-      <c r="E90">
-        <v>30087939</v>
-      </c>
-      <c r="H90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>29610</v>
+        <v>30884</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E91">
-        <v>30073292</v>
+        <v>30060225</v>
       </c>
       <c r="H91" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>30884</v>
+        <v>31148</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E92">
-        <v>30060225</v>
+        <v>30058426</v>
       </c>
       <c r="H92" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>31570</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>9467608</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>31860</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94">
+        <v>30086680</v>
+      </c>
+      <c r="H94" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>31148</v>
-      </c>
-      <c r="C93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93">
-        <v>30058426</v>
-      </c>
-      <c r="H93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>31570</v>
-      </c>
-      <c r="C94" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94">
-        <v>9467608</v>
-      </c>
-      <c r="H94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>31860</v>
+        <v>31897</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="E95">
-        <v>30086680</v>
+        <v>30089799</v>
       </c>
       <c r="H95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>31897</v>
+        <v>31903</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E96">
-        <v>30089799</v>
+        <v>20050717</v>
       </c>
       <c r="H96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>31903</v>
+        <v>32030</v>
       </c>
       <c r="C97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E97">
-        <v>20050717</v>
+        <v>30021326</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>32030</v>
       </c>
@@ -2692,132 +2911,154 @@
         <v>143</v>
       </c>
       <c r="E98">
-        <v>30021326</v>
+        <v>30021852</v>
       </c>
       <c r="H98" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>32030</v>
+        <v>32235</v>
       </c>
       <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99">
+        <v>4206537</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>32321</v>
+      </c>
+      <c r="C100" t="s">
         <v>142</v>
       </c>
-      <c r="D99" t="s">
-        <v>143</v>
-      </c>
-      <c r="E99">
-        <v>30021852</v>
-      </c>
-      <c r="H99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>32235</v>
-      </c>
-      <c r="C100" t="s">
-        <v>145</v>
-      </c>
       <c r="D100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E100">
-        <v>4206537</v>
+        <v>30042065</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>32321</v>
+        <v>32481</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E101">
-        <v>30042065</v>
+        <v>30010480</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>32481</v>
+        <v>32482</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E102">
-        <v>30010480</v>
+        <v>30088447</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>32482</v>
+        <v>32491</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E103">
-        <v>30088447</v>
+        <v>11714690</v>
       </c>
       <c r="H103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>32491</v>
+        <v>32578</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E104">
-        <v>11714690</v>
+        <v>10280130</v>
       </c>
       <c r="H104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>32578</v>
+        <v>32579</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="D105" t="s">
         <v>152</v>
       </c>
       <c r="E105">
-        <v>10280130</v>
+        <v>8594872</v>
       </c>
       <c r="H105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>32579</v>
       </c>
@@ -2828,98 +3069,114 @@
         <v>152</v>
       </c>
       <c r="E106">
-        <v>8594872</v>
+        <v>30020796</v>
       </c>
       <c r="H106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>32579</v>
+        <v>32675</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E107">
-        <v>30020796</v>
+        <v>20149177</v>
       </c>
       <c r="H107" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>32675</v>
+        <v>33573</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="E108">
-        <v>20149177</v>
+        <v>30044342</v>
       </c>
       <c r="H108" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>33573</v>
+        <v>33849</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="E109">
-        <v>30044342</v>
+        <v>8084</v>
       </c>
       <c r="H109" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>33849</v>
+        <v>34276</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E110">
-        <v>8084</v>
+        <v>14177821</v>
       </c>
       <c r="H110" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>34276</v>
+        <v>34786</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E111">
-        <v>14177821</v>
+        <v>30029069</v>
       </c>
       <c r="H111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>34786</v>
       </c>
@@ -2930,288 +3187,263 @@
         <v>152</v>
       </c>
       <c r="E112">
-        <v>30029069</v>
+        <v>30029093</v>
       </c>
       <c r="H112" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>34786</v>
+        <v>35246</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E113">
-        <v>30029093</v>
+        <v>30020101</v>
       </c>
       <c r="H113" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>35246</v>
+        <v>35267</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E114">
-        <v>30020101</v>
+        <v>30029482</v>
       </c>
       <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>35271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115">
+        <v>1145810</v>
+      </c>
+      <c r="H115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>35267</v>
-      </c>
-      <c r="C115" t="s">
-        <v>163</v>
-      </c>
-      <c r="D115" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115">
-        <v>30029482</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>35400</v>
+      </c>
+      <c r="C116" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" t="s">
+        <v>165</v>
+      </c>
+      <c r="E116">
+        <v>30006411</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>35407</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117">
+        <v>30005800</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>36660</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118">
+        <v>108789</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>36710</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>169</v>
+      </c>
+      <c r="E119">
+        <v>30010498</v>
+      </c>
+      <c r="H119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>35271</v>
-      </c>
-      <c r="C116" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116">
-        <v>1145810</v>
-      </c>
-      <c r="H116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>35400</v>
-      </c>
-      <c r="C117" t="s">
-        <v>142</v>
-      </c>
-      <c r="D117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117">
-        <v>30006411</v>
-      </c>
-      <c r="H117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>35407</v>
-      </c>
-      <c r="C118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" t="s">
-        <v>166</v>
-      </c>
-      <c r="E118">
-        <v>30005800</v>
-      </c>
-      <c r="H118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>36660</v>
-      </c>
-      <c r="C119" t="s">
-        <v>167</v>
-      </c>
-      <c r="D119" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119">
-        <v>108789</v>
-      </c>
-      <c r="H119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>36710</v>
+        <v>36908</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E120">
-        <v>30010498</v>
+        <v>14675135</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>36783</v>
+        <v>36908</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E121">
-        <v>30008185</v>
+        <v>14675328</v>
       </c>
       <c r="H121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>36908</v>
+        <v>36912</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E122">
-        <v>14675135</v>
+        <v>30040840</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>36908</v>
+        <v>37870</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E123">
-        <v>14675328</v>
+        <v>30038852</v>
       </c>
       <c r="H123" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>36912</v>
+        <v>37996</v>
       </c>
       <c r="C124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E124">
-        <v>30040840</v>
+        <v>14668442</v>
       </c>
       <c r="H124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>37870</v>
-      </c>
-      <c r="C125" t="s">
-        <v>175</v>
-      </c>
-      <c r="D125" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125">
-        <v>30038852</v>
-      </c>
-      <c r="H125" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>37991</v>
-      </c>
-      <c r="C126" t="s">
-        <v>142</v>
-      </c>
-      <c r="D126" t="s">
-        <v>177</v>
-      </c>
-      <c r="E126">
-        <v>30008185</v>
-      </c>
-      <c r="H126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>37996</v>
-      </c>
-      <c r="C127" t="s">
-        <v>178</v>
-      </c>
-      <c r="D127" t="s">
-        <v>179</v>
-      </c>
-      <c r="E127">
-        <v>14668442</v>
-      </c>
-      <c r="H127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>38035</v>
-      </c>
-      <c r="C128" t="s">
-        <v>180</v>
-      </c>
-      <c r="D128" t="s">
-        <v>181</v>
-      </c>
-      <c r="E128">
-        <v>30008185</v>
-      </c>
-      <c r="H128" t="s">
-        <v>2</v>
+      <c r="I124" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I120:I121"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I65:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3219,23 +3451,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3246,7 +3478,7 @@
         <v>109346</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3257,7 +3489,7 @@
         <v>30059609</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3268,7 +3500,7 @@
         <v>30001838</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3279,7 +3511,315 @@
         <v>11653468</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6446</v>
+      </c>
+      <c r="B6">
+        <v>1146396</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6446</v>
+      </c>
+      <c r="B7">
+        <v>30089213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6446</v>
+      </c>
+      <c r="B8">
+        <v>7586942</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14947</v>
+      </c>
+      <c r="B9">
+        <v>20235984</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14947</v>
+      </c>
+      <c r="B10">
+        <v>20235972</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14947</v>
+      </c>
+      <c r="B11">
+        <v>20235971</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>24761</v>
+      </c>
+      <c r="B12">
+        <v>20111586</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24761</v>
+      </c>
+      <c r="B13">
+        <v>30015173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>24761</v>
+      </c>
+      <c r="B14">
+        <v>20111567</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>26356</v>
+      </c>
+      <c r="B15">
+        <v>30009706</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>26356</v>
+      </c>
+      <c r="B16">
+        <v>30009705</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>26356</v>
+      </c>
+      <c r="B17">
+        <v>30009707</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>32030</v>
+      </c>
+      <c r="B18">
+        <v>30028870</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>32030</v>
+      </c>
+      <c r="B19">
+        <v>30021316</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>32030</v>
+      </c>
+      <c r="B20">
+        <v>30021271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>32030</v>
+      </c>
+      <c r="B21">
+        <v>30021270</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>32321</v>
+      </c>
+      <c r="B22">
+        <v>14189397</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>32481</v>
+      </c>
+      <c r="B23">
+        <v>8206167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>36908</v>
+      </c>
+      <c r="B24">
+        <v>14675328</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>36908</v>
+      </c>
+      <c r="B25">
+        <v>30074506</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>36908</v>
+      </c>
+      <c r="B26">
+        <v>14675135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4709</v>
+      </c>
+      <c r="B27">
+        <v>20154558</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4709</v>
+      </c>
+      <c r="B28">
+        <v>20154544</v>
+      </c>
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4709</v>
+      </c>
+      <c r="B29">
+        <v>20154621</v>
+      </c>
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4709</v>
+      </c>
+      <c r="B30">
+        <v>20154557</v>
+      </c>
+      <c r="C30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5009</v>
+      </c>
+      <c r="B31">
+        <v>30021551</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5009</v>
+      </c>
+      <c r="B32">
+        <v>30021550</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5009</v>
+      </c>
+      <c r="B33">
+        <v>30082393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/tmc_qc_25m.xlsx
+++ b/tmc_qc_25m.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="196">
   <si>
     <t>CELESTE</t>
   </si>
@@ -659,19 +659,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1009,7 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1684,7 +1685,7 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1704,7 +1705,7 @@
       <c r="H37" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -2516,7 +2517,7 @@
       <c r="H78" t="s">
         <v>2</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2954,7 +2955,7 @@
       <c r="H100" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2974,7 +2975,7 @@
       <c r="H101" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3054,7 +3055,7 @@
       <c r="H105" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3074,7 +3075,7 @@
       <c r="H106" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="1"/>
+      <c r="I106" s="4"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -3172,7 +3173,7 @@
       <c r="H111" t="s">
         <v>160</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3192,7 +3193,7 @@
       <c r="H112" t="s">
         <v>160</v>
       </c>
-      <c r="I112" s="1"/>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -3250,7 +3251,7 @@
       <c r="H115" t="s">
         <v>5</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3434,16 +3435,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I65:I66"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="I97:I98"/>
     <mergeCell ref="I105:I106"/>
     <mergeCell ref="I111:I112"/>
     <mergeCell ref="I120:I121"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I65:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3451,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:R233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3822,6 +3823,2188 @@
         <v>190</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3965</v>
+      </c>
+      <c r="B34">
+        <v>445156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3965</v>
+      </c>
+      <c r="B35">
+        <v>445250</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3965</v>
+      </c>
+      <c r="B36">
+        <v>445222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3965</v>
+      </c>
+      <c r="B37">
+        <v>445155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4039</v>
+      </c>
+      <c r="B38">
+        <v>20044501</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4039</v>
+      </c>
+      <c r="B39">
+        <v>14204029</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4039</v>
+      </c>
+      <c r="B40">
+        <v>30012612</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4039</v>
+      </c>
+      <c r="B41">
+        <v>14204001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4080</v>
+      </c>
+      <c r="B42">
+        <v>1147102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4080</v>
+      </c>
+      <c r="B43">
+        <v>1147107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4080</v>
+      </c>
+      <c r="B44">
+        <v>13515818</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4202</v>
+      </c>
+      <c r="B45">
+        <v>3065754</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4202</v>
+      </c>
+      <c r="B46">
+        <v>14037155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4202</v>
+      </c>
+      <c r="B47">
+        <v>1146332</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4202</v>
+      </c>
+      <c r="B48">
+        <v>10864309</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4363</v>
+      </c>
+      <c r="B49">
+        <v>30073909</v>
+      </c>
+      <c r="C49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4363</v>
+      </c>
+      <c r="B50">
+        <v>436832</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4363</v>
+      </c>
+      <c r="B51">
+        <v>436758</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4363</v>
+      </c>
+      <c r="B52">
+        <v>436731</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4406</v>
+      </c>
+      <c r="B53">
+        <v>14134993</v>
+      </c>
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4406</v>
+      </c>
+      <c r="B54">
+        <v>14134903</v>
+      </c>
+      <c r="C54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4406</v>
+      </c>
+      <c r="B55">
+        <v>14134884</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4406</v>
+      </c>
+      <c r="B56">
+        <v>14134896</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4507</v>
+      </c>
+      <c r="B57">
+        <v>1139880</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4507</v>
+      </c>
+      <c r="B58">
+        <v>1140199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4507</v>
+      </c>
+      <c r="B59">
+        <v>1139963</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4507</v>
+      </c>
+      <c r="B60">
+        <v>1139879</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4720</v>
+      </c>
+      <c r="B61">
+        <v>30016129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4720</v>
+      </c>
+      <c r="B62">
+        <v>8680975</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4720</v>
+      </c>
+      <c r="B63">
+        <v>432</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4720</v>
+      </c>
+      <c r="B64">
+        <v>8677049</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4778</v>
+      </c>
+      <c r="B65">
+        <v>8824030</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4778</v>
+      </c>
+      <c r="B66">
+        <v>7862433</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4778</v>
+      </c>
+      <c r="B67">
+        <v>6238151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4778</v>
+      </c>
+      <c r="B68">
+        <v>6195239</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4779</v>
+      </c>
+      <c r="B69">
+        <v>6231632</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4779</v>
+      </c>
+      <c r="B70">
+        <v>20048482</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4779</v>
+      </c>
+      <c r="B71">
+        <v>914479</v>
+      </c>
+      <c r="C71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4779</v>
+      </c>
+      <c r="B72">
+        <v>6195251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4873</v>
+      </c>
+      <c r="B73">
+        <v>20044267</v>
+      </c>
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4873</v>
+      </c>
+      <c r="B74">
+        <v>30089847</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4873</v>
+      </c>
+      <c r="B75">
+        <v>8087218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4873</v>
+      </c>
+      <c r="B76">
+        <v>30089844</v>
+      </c>
+      <c r="C76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4924</v>
+      </c>
+      <c r="B77">
+        <v>14013313</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4924</v>
+      </c>
+      <c r="B78">
+        <v>14013595</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4924</v>
+      </c>
+      <c r="B79">
+        <v>1142774</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4924</v>
+      </c>
+      <c r="B80">
+        <v>8416915</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4978</v>
+      </c>
+      <c r="B81">
+        <v>20231119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4978</v>
+      </c>
+      <c r="B82">
+        <v>30017549</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4978</v>
+      </c>
+      <c r="B83">
+        <v>8608502</v>
+      </c>
+      <c r="C83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4978</v>
+      </c>
+      <c r="B84">
+        <v>8608491</v>
+      </c>
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5172</v>
+      </c>
+      <c r="B85">
+        <v>30015105</v>
+      </c>
+      <c r="C85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5172</v>
+      </c>
+      <c r="B86">
+        <v>9410000</v>
+      </c>
+      <c r="C86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5172</v>
+      </c>
+      <c r="B87">
+        <v>1449</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5172</v>
+      </c>
+      <c r="B88">
+        <v>1366</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5188</v>
+      </c>
+      <c r="B89">
+        <v>1145785</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5188</v>
+      </c>
+      <c r="B90">
+        <v>30057507</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5188</v>
+      </c>
+      <c r="B91">
+        <v>1145812</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5188</v>
+      </c>
+      <c r="B92">
+        <v>8396807</v>
+      </c>
+      <c r="C92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5197</v>
+      </c>
+      <c r="B93">
+        <v>6027215</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5197</v>
+      </c>
+      <c r="B94">
+        <v>914882</v>
+      </c>
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5197</v>
+      </c>
+      <c r="B95">
+        <v>9941956</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5197</v>
+      </c>
+      <c r="B96">
+        <v>20230538</v>
+      </c>
+      <c r="C96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5232</v>
+      </c>
+      <c r="B97">
+        <v>111863</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5232</v>
+      </c>
+      <c r="B98">
+        <v>5413270</v>
+      </c>
+      <c r="C98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5232</v>
+      </c>
+      <c r="B99">
+        <v>444763</v>
+      </c>
+      <c r="C99" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5232</v>
+      </c>
+      <c r="B100">
+        <v>5413251</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5390</v>
+      </c>
+      <c r="B101">
+        <v>14037089</v>
+      </c>
+      <c r="C101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>5390</v>
+      </c>
+      <c r="B102">
+        <v>30017572</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5390</v>
+      </c>
+      <c r="B103">
+        <v>8608491</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>5390</v>
+      </c>
+      <c r="B104">
+        <v>10663266</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>5450</v>
+      </c>
+      <c r="B105">
+        <v>908438</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>5450</v>
+      </c>
+      <c r="B106">
+        <v>20059766</v>
+      </c>
+      <c r="C106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>5450</v>
+      </c>
+      <c r="B107">
+        <v>908459</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>5450</v>
+      </c>
+      <c r="B108">
+        <v>20059760</v>
+      </c>
+      <c r="C108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>5586</v>
+      </c>
+      <c r="B109">
+        <v>113237</v>
+      </c>
+      <c r="C109" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>5586</v>
+      </c>
+      <c r="B110">
+        <v>113254</v>
+      </c>
+      <c r="C110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>5586</v>
+      </c>
+      <c r="B111">
+        <v>113240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>5586</v>
+      </c>
+      <c r="B112">
+        <v>2286552</v>
+      </c>
+      <c r="C112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>5600</v>
+      </c>
+      <c r="B113">
+        <v>111501</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>5600</v>
+      </c>
+      <c r="B114">
+        <v>6674318</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5600</v>
+      </c>
+      <c r="B115">
+        <v>111591</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5600</v>
+      </c>
+      <c r="B116">
+        <v>111495</v>
+      </c>
+      <c r="C116" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>5614</v>
+      </c>
+      <c r="B117">
+        <v>12189729</v>
+      </c>
+      <c r="C117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>5614</v>
+      </c>
+      <c r="B118">
+        <v>14014172</v>
+      </c>
+      <c r="C118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>5614</v>
+      </c>
+      <c r="B119">
+        <v>14014159</v>
+      </c>
+      <c r="C119" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>5614</v>
+      </c>
+      <c r="B120">
+        <v>1143284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>5693</v>
+      </c>
+      <c r="B121">
+        <v>9340537</v>
+      </c>
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5693</v>
+      </c>
+      <c r="B122">
+        <v>4684751</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5693</v>
+      </c>
+      <c r="B123">
+        <v>110316</v>
+      </c>
+      <c r="C123" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5693</v>
+      </c>
+      <c r="B124">
+        <v>110270</v>
+      </c>
+      <c r="C124" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5865</v>
+      </c>
+      <c r="B125">
+        <v>8127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5865</v>
+      </c>
+      <c r="B126">
+        <v>14067359</v>
+      </c>
+      <c r="C126" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5865</v>
+      </c>
+      <c r="B127">
+        <v>8128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5865</v>
+      </c>
+      <c r="B128">
+        <v>8174</v>
+      </c>
+      <c r="C128" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>5880</v>
+      </c>
+      <c r="B129">
+        <v>20079154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5880</v>
+      </c>
+      <c r="B130">
+        <v>14066953</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5880</v>
+      </c>
+      <c r="B131">
+        <v>3497322</v>
+      </c>
+      <c r="C131" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5880</v>
+      </c>
+      <c r="B132">
+        <v>7459</v>
+      </c>
+      <c r="C132" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>6181</v>
+      </c>
+      <c r="B133">
+        <v>30036320</v>
+      </c>
+      <c r="C133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>6181</v>
+      </c>
+      <c r="B134">
+        <v>1143136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>6181</v>
+      </c>
+      <c r="B135">
+        <v>6387985</v>
+      </c>
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>6181</v>
+      </c>
+      <c r="B136">
+        <v>10035628</v>
+      </c>
+      <c r="C136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>6848</v>
+      </c>
+      <c r="B137">
+        <v>10258028</v>
+      </c>
+      <c r="C137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>6848</v>
+      </c>
+      <c r="B138">
+        <v>13232840</v>
+      </c>
+      <c r="C138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>6848</v>
+      </c>
+      <c r="B139">
+        <v>2884115</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>6848</v>
+      </c>
+      <c r="B140">
+        <v>20057357</v>
+      </c>
+      <c r="C140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>11879</v>
+      </c>
+      <c r="B141">
+        <v>14078493</v>
+      </c>
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>11879</v>
+      </c>
+      <c r="B142">
+        <v>14072838</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>11879</v>
+      </c>
+      <c r="B143">
+        <v>8745</v>
+      </c>
+      <c r="C143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>11879</v>
+      </c>
+      <c r="B144">
+        <v>14068812</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>12116</v>
+      </c>
+      <c r="B145">
+        <v>30073968</v>
+      </c>
+      <c r="C145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>12116</v>
+      </c>
+      <c r="B146">
+        <v>14021164</v>
+      </c>
+      <c r="C146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>12116</v>
+      </c>
+      <c r="B147">
+        <v>8677216</v>
+      </c>
+      <c r="C147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>12116</v>
+      </c>
+      <c r="B148">
+        <v>14021105</v>
+      </c>
+      <c r="C148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>12261</v>
+      </c>
+      <c r="B149">
+        <v>10757512</v>
+      </c>
+      <c r="C149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>12261</v>
+      </c>
+      <c r="B150">
+        <v>7986338</v>
+      </c>
+      <c r="C150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>12261</v>
+      </c>
+      <c r="B151">
+        <v>14017401</v>
+      </c>
+      <c r="C151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>12261</v>
+      </c>
+      <c r="B152">
+        <v>14042376</v>
+      </c>
+      <c r="C152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>13811</v>
+      </c>
+      <c r="B153">
+        <v>1144744</v>
+      </c>
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>13811</v>
+      </c>
+      <c r="B154">
+        <v>1144816</v>
+      </c>
+      <c r="C154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>13811</v>
+      </c>
+      <c r="B155">
+        <v>2689046</v>
+      </c>
+      <c r="C155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>14869</v>
+      </c>
+      <c r="B156">
+        <v>7470</v>
+      </c>
+      <c r="C156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>14869</v>
+      </c>
+      <c r="B157">
+        <v>14051000</v>
+      </c>
+      <c r="C157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>14869</v>
+      </c>
+      <c r="B158">
+        <v>14050981</v>
+      </c>
+      <c r="C158" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>14869</v>
+      </c>
+      <c r="B159">
+        <v>7469</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>20298</v>
+      </c>
+      <c r="B160">
+        <v>30017463</v>
+      </c>
+      <c r="C160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>20298</v>
+      </c>
+      <c r="B161">
+        <v>14022592</v>
+      </c>
+      <c r="C161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20298</v>
+      </c>
+      <c r="B162">
+        <v>1142199</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20298</v>
+      </c>
+      <c r="B163">
+        <v>1142163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>22714</v>
+      </c>
+      <c r="B164">
+        <v>8419</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>22714</v>
+      </c>
+      <c r="B165">
+        <v>8594</v>
+      </c>
+      <c r="C165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>22714</v>
+      </c>
+      <c r="B166">
+        <v>30006087</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>22714</v>
+      </c>
+      <c r="B167">
+        <v>8417</v>
+      </c>
+      <c r="C167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>23204</v>
+      </c>
+      <c r="B168">
+        <v>20260229</v>
+      </c>
+      <c r="C168" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>23204</v>
+      </c>
+      <c r="B169">
+        <v>1139723</v>
+      </c>
+      <c r="C169" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>23204</v>
+      </c>
+      <c r="B170">
+        <v>14232499</v>
+      </c>
+      <c r="C170" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>23204</v>
+      </c>
+      <c r="B171">
+        <v>20141111</v>
+      </c>
+      <c r="C171" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>23331</v>
+      </c>
+      <c r="B172">
+        <v>7402</v>
+      </c>
+      <c r="C172" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>23331</v>
+      </c>
+      <c r="B173">
+        <v>30017559</v>
+      </c>
+      <c r="C173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>23331</v>
+      </c>
+      <c r="B174">
+        <v>20010472</v>
+      </c>
+      <c r="C174" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>23331</v>
+      </c>
+      <c r="B175">
+        <v>20010443</v>
+      </c>
+      <c r="C175" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>24213</v>
+      </c>
+      <c r="B176">
+        <v>106517</v>
+      </c>
+      <c r="C176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>24213</v>
+      </c>
+      <c r="B177">
+        <v>106527</v>
+      </c>
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>24878</v>
+      </c>
+      <c r="B178">
+        <v>20111834</v>
+      </c>
+      <c r="C178" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>24878</v>
+      </c>
+      <c r="B179">
+        <v>7553549</v>
+      </c>
+      <c r="C179" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>24878</v>
+      </c>
+      <c r="B180">
+        <v>30075899</v>
+      </c>
+      <c r="C180" t="s">
+        <v>190</v>
+      </c>
+      <c r="P180" s="6"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>24878</v>
+      </c>
+      <c r="B181">
+        <v>3121358</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
+      </c>
+      <c r="P181" s="6"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>28070</v>
+      </c>
+      <c r="B182">
+        <v>14016102</v>
+      </c>
+      <c r="C182" t="s">
+        <v>188</v>
+      </c>
+      <c r="P182" s="6"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>28070</v>
+      </c>
+      <c r="B183">
+        <v>14016124</v>
+      </c>
+      <c r="C183" t="s">
+        <v>189</v>
+      </c>
+      <c r="P183" s="6"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>28070</v>
+      </c>
+      <c r="B184">
+        <v>1140012</v>
+      </c>
+      <c r="C184" t="s">
+        <v>190</v>
+      </c>
+      <c r="P184" s="6"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>28070</v>
+      </c>
+      <c r="B185">
+        <v>10367572</v>
+      </c>
+      <c r="C185" t="s">
+        <v>191</v>
+      </c>
+      <c r="P185" s="6"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>28071</v>
+      </c>
+      <c r="B186">
+        <v>14016094</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+      <c r="P186" s="6"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>28071</v>
+      </c>
+      <c r="B187">
+        <v>1140362</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+      <c r="P187" s="6"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>28071</v>
+      </c>
+      <c r="B188">
+        <v>1140029</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+      <c r="P188" s="6"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>28071</v>
+      </c>
+      <c r="B189">
+        <v>1140012</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+      <c r="P189" s="6"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>28281</v>
+      </c>
+      <c r="B190">
+        <v>1116</v>
+      </c>
+      <c r="C190" t="s">
+        <v>188</v>
+      </c>
+      <c r="P190" s="6"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>28281</v>
+      </c>
+      <c r="B191">
+        <v>20041963</v>
+      </c>
+      <c r="C191" t="s">
+        <v>189</v>
+      </c>
+      <c r="P191" s="6"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>28281</v>
+      </c>
+      <c r="B192">
+        <v>1133</v>
+      </c>
+      <c r="C192" t="s">
+        <v>190</v>
+      </c>
+      <c r="P192" s="6"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>28281</v>
+      </c>
+      <c r="B193">
+        <v>3232748</v>
+      </c>
+      <c r="C193" t="s">
+        <v>191</v>
+      </c>
+      <c r="P193" s="6"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>30280</v>
+      </c>
+      <c r="B194">
+        <v>112961</v>
+      </c>
+      <c r="C194" t="s">
+        <v>188</v>
+      </c>
+      <c r="P194" s="6"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>30280</v>
+      </c>
+      <c r="B195">
+        <v>8237825</v>
+      </c>
+      <c r="C195" t="s">
+        <v>189</v>
+      </c>
+      <c r="P195" s="6"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>30280</v>
+      </c>
+      <c r="B196">
+        <v>8237684</v>
+      </c>
+      <c r="C196" t="s">
+        <v>190</v>
+      </c>
+      <c r="P196" s="6"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>30280</v>
+      </c>
+      <c r="B197">
+        <v>4819765</v>
+      </c>
+      <c r="C197" t="s">
+        <v>191</v>
+      </c>
+      <c r="R197" s="6"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>30295</v>
+      </c>
+      <c r="B198">
+        <v>112937</v>
+      </c>
+      <c r="C198" t="s">
+        <v>188</v>
+      </c>
+      <c r="R198" s="6"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>30295</v>
+      </c>
+      <c r="B199">
+        <v>112979</v>
+      </c>
+      <c r="C199" t="s">
+        <v>189</v>
+      </c>
+      <c r="R199" s="6"/>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>30295</v>
+      </c>
+      <c r="B200">
+        <v>112943</v>
+      </c>
+      <c r="C200" t="s">
+        <v>190</v>
+      </c>
+      <c r="R200" s="6"/>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>30295</v>
+      </c>
+      <c r="B201">
+        <v>112936</v>
+      </c>
+      <c r="C201" t="s">
+        <v>191</v>
+      </c>
+      <c r="R201" s="6"/>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>31501</v>
+      </c>
+      <c r="B202">
+        <v>14073965</v>
+      </c>
+      <c r="C202" t="s">
+        <v>190</v>
+      </c>
+      <c r="R202" s="6"/>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>31501</v>
+      </c>
+      <c r="B203">
+        <v>14073964</v>
+      </c>
+      <c r="C203" t="s">
+        <v>191</v>
+      </c>
+      <c r="R203" s="6"/>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>32574</v>
+      </c>
+      <c r="B204">
+        <v>14022569</v>
+      </c>
+      <c r="C204" t="s">
+        <v>188</v>
+      </c>
+      <c r="R204" s="6"/>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>32574</v>
+      </c>
+      <c r="B205">
+        <v>14171638</v>
+      </c>
+      <c r="C205" t="s">
+        <v>189</v>
+      </c>
+      <c r="R205" s="6"/>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>32574</v>
+      </c>
+      <c r="B206">
+        <v>14171607</v>
+      </c>
+      <c r="C206" t="s">
+        <v>190</v>
+      </c>
+      <c r="R206" s="6"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>32574</v>
+      </c>
+      <c r="B207">
+        <v>8407995</v>
+      </c>
+      <c r="C207" t="s">
+        <v>191</v>
+      </c>
+      <c r="R207" s="6"/>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>32575</v>
+      </c>
+      <c r="B208">
+        <v>14016751</v>
+      </c>
+      <c r="C208" t="s">
+        <v>188</v>
+      </c>
+      <c r="R208" s="6"/>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>32575</v>
+      </c>
+      <c r="B209">
+        <v>20080665</v>
+      </c>
+      <c r="C209" t="s">
+        <v>189</v>
+      </c>
+      <c r="R209" s="6"/>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>32575</v>
+      </c>
+      <c r="B210">
+        <v>14064632</v>
+      </c>
+      <c r="C210" t="s">
+        <v>190</v>
+      </c>
+      <c r="R210" s="6"/>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>32575</v>
+      </c>
+      <c r="B211">
+        <v>14016798</v>
+      </c>
+      <c r="C211" t="s">
+        <v>191</v>
+      </c>
+      <c r="R211" s="6"/>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>35205</v>
+      </c>
+      <c r="B212">
+        <v>30023599</v>
+      </c>
+      <c r="C212" t="s">
+        <v>188</v>
+      </c>
+      <c r="R212" s="6"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>35205</v>
+      </c>
+      <c r="B213">
+        <v>30023585</v>
+      </c>
+      <c r="C213" t="s">
+        <v>189</v>
+      </c>
+      <c r="R213" s="6"/>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>36477</v>
+      </c>
+      <c r="B214">
+        <v>8824030</v>
+      </c>
+      <c r="C214" t="s">
+        <v>188</v>
+      </c>
+      <c r="R214" s="6"/>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>36477</v>
+      </c>
+      <c r="B215">
+        <v>7862433</v>
+      </c>
+      <c r="C215" t="s">
+        <v>189</v>
+      </c>
+      <c r="R215" s="6"/>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>36477</v>
+      </c>
+      <c r="B216">
+        <v>6238151</v>
+      </c>
+      <c r="C216" t="s">
+        <v>190</v>
+      </c>
+      <c r="R216" s="6"/>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>36477</v>
+      </c>
+      <c r="B217">
+        <v>6195239</v>
+      </c>
+      <c r="C217" t="s">
+        <v>191</v>
+      </c>
+      <c r="R217" s="6"/>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>37865</v>
+      </c>
+      <c r="B218">
+        <v>107624</v>
+      </c>
+      <c r="C218" t="s">
+        <v>188</v>
+      </c>
+      <c r="R218" s="6"/>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>37865</v>
+      </c>
+      <c r="B219">
+        <v>107695</v>
+      </c>
+      <c r="C219" t="s">
+        <v>189</v>
+      </c>
+      <c r="R219" s="6"/>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>37865</v>
+      </c>
+      <c r="B220">
+        <v>107682</v>
+      </c>
+      <c r="C220" t="s">
+        <v>190</v>
+      </c>
+      <c r="R220" s="6"/>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>37865</v>
+      </c>
+      <c r="B221">
+        <v>11466889</v>
+      </c>
+      <c r="C221" t="s">
+        <v>191</v>
+      </c>
+      <c r="R221" s="6"/>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>37875</v>
+      </c>
+      <c r="B222">
+        <v>112675</v>
+      </c>
+      <c r="C222" t="s">
+        <v>188</v>
+      </c>
+      <c r="R222" s="6"/>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>37875</v>
+      </c>
+      <c r="B223">
+        <v>2312030</v>
+      </c>
+      <c r="C223" t="s">
+        <v>189</v>
+      </c>
+      <c r="R223" s="6"/>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>37875</v>
+      </c>
+      <c r="B224">
+        <v>112691</v>
+      </c>
+      <c r="C224" t="s">
+        <v>190</v>
+      </c>
+      <c r="R224" s="6"/>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>37875</v>
+      </c>
+      <c r="B225">
+        <v>112674</v>
+      </c>
+      <c r="C225" t="s">
+        <v>191</v>
+      </c>
+      <c r="R225" s="6"/>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R226" s="6"/>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R227" s="6"/>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R228" s="6"/>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R229" s="6"/>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R230" s="6"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R231" s="6"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R232" s="6"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R233" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmc_qc_25m.xlsx
+++ b/tmc_qc_25m.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="196">
   <si>
     <t>CELESTE</t>
   </si>
@@ -659,20 +659,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1008,7 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1685,7 +1684,7 @@
       <c r="H36" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1705,7 +1704,7 @@
       <c r="H37" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -2517,7 +2516,7 @@
       <c r="H78" t="s">
         <v>2</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2955,7 +2954,7 @@
       <c r="H100" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2975,7 +2974,7 @@
       <c r="H101" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3055,7 +3054,7 @@
       <c r="H105" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="I105" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3075,7 +3074,7 @@
       <c r="H106" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="4"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -3173,7 +3172,7 @@
       <c r="H111" t="s">
         <v>160</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3193,7 +3192,7 @@
       <c r="H112" t="s">
         <v>160</v>
       </c>
-      <c r="I112" s="4"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -3251,7 +3250,7 @@
       <c r="H115" t="s">
         <v>5</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3435,16 +3434,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I120:I121"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="I65:I66"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="I120:I121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3452,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3823,2188 +3822,6 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3965</v>
-      </c>
-      <c r="B34">
-        <v>445156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>3965</v>
-      </c>
-      <c r="B35">
-        <v>445250</v>
-      </c>
-      <c r="C35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>3965</v>
-      </c>
-      <c r="B36">
-        <v>445222</v>
-      </c>
-      <c r="C36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3965</v>
-      </c>
-      <c r="B37">
-        <v>445155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>4039</v>
-      </c>
-      <c r="B38">
-        <v>20044501</v>
-      </c>
-      <c r="C38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>4039</v>
-      </c>
-      <c r="B39">
-        <v>14204029</v>
-      </c>
-      <c r="C39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4039</v>
-      </c>
-      <c r="B40">
-        <v>30012612</v>
-      </c>
-      <c r="C40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>4039</v>
-      </c>
-      <c r="B41">
-        <v>14204001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>4080</v>
-      </c>
-      <c r="B42">
-        <v>1147102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>4080</v>
-      </c>
-      <c r="B43">
-        <v>1147107</v>
-      </c>
-      <c r="C43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>4080</v>
-      </c>
-      <c r="B44">
-        <v>13515818</v>
-      </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>4202</v>
-      </c>
-      <c r="B45">
-        <v>3065754</v>
-      </c>
-      <c r="C45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>4202</v>
-      </c>
-      <c r="B46">
-        <v>14037155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>4202</v>
-      </c>
-      <c r="B47">
-        <v>1146332</v>
-      </c>
-      <c r="C47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>4202</v>
-      </c>
-      <c r="B48">
-        <v>10864309</v>
-      </c>
-      <c r="C48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>4363</v>
-      </c>
-      <c r="B49">
-        <v>30073909</v>
-      </c>
-      <c r="C49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>4363</v>
-      </c>
-      <c r="B50">
-        <v>436832</v>
-      </c>
-      <c r="C50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>4363</v>
-      </c>
-      <c r="B51">
-        <v>436758</v>
-      </c>
-      <c r="C51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>4363</v>
-      </c>
-      <c r="B52">
-        <v>436731</v>
-      </c>
-      <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>4406</v>
-      </c>
-      <c r="B53">
-        <v>14134993</v>
-      </c>
-      <c r="C53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>4406</v>
-      </c>
-      <c r="B54">
-        <v>14134903</v>
-      </c>
-      <c r="C54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>4406</v>
-      </c>
-      <c r="B55">
-        <v>14134884</v>
-      </c>
-      <c r="C55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>4406</v>
-      </c>
-      <c r="B56">
-        <v>14134896</v>
-      </c>
-      <c r="C56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>4507</v>
-      </c>
-      <c r="B57">
-        <v>1139880</v>
-      </c>
-      <c r="C57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>4507</v>
-      </c>
-      <c r="B58">
-        <v>1140199</v>
-      </c>
-      <c r="C58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4507</v>
-      </c>
-      <c r="B59">
-        <v>1139963</v>
-      </c>
-      <c r="C59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>4507</v>
-      </c>
-      <c r="B60">
-        <v>1139879</v>
-      </c>
-      <c r="C60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>4720</v>
-      </c>
-      <c r="B61">
-        <v>30016129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4720</v>
-      </c>
-      <c r="B62">
-        <v>8680975</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>4720</v>
-      </c>
-      <c r="B63">
-        <v>432</v>
-      </c>
-      <c r="C63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>4720</v>
-      </c>
-      <c r="B64">
-        <v>8677049</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>4778</v>
-      </c>
-      <c r="B65">
-        <v>8824030</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>4778</v>
-      </c>
-      <c r="B66">
-        <v>7862433</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>4778</v>
-      </c>
-      <c r="B67">
-        <v>6238151</v>
-      </c>
-      <c r="C67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>4778</v>
-      </c>
-      <c r="B68">
-        <v>6195239</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>4779</v>
-      </c>
-      <c r="B69">
-        <v>6231632</v>
-      </c>
-      <c r="C69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>4779</v>
-      </c>
-      <c r="B70">
-        <v>20048482</v>
-      </c>
-      <c r="C70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>4779</v>
-      </c>
-      <c r="B71">
-        <v>914479</v>
-      </c>
-      <c r="C71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>4779</v>
-      </c>
-      <c r="B72">
-        <v>6195251</v>
-      </c>
-      <c r="C72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>4873</v>
-      </c>
-      <c r="B73">
-        <v>20044267</v>
-      </c>
-      <c r="C73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>4873</v>
-      </c>
-      <c r="B74">
-        <v>30089847</v>
-      </c>
-      <c r="C74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>4873</v>
-      </c>
-      <c r="B75">
-        <v>8087218</v>
-      </c>
-      <c r="C75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>4873</v>
-      </c>
-      <c r="B76">
-        <v>30089844</v>
-      </c>
-      <c r="C76" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>4924</v>
-      </c>
-      <c r="B77">
-        <v>14013313</v>
-      </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>4924</v>
-      </c>
-      <c r="B78">
-        <v>14013595</v>
-      </c>
-      <c r="C78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>4924</v>
-      </c>
-      <c r="B79">
-        <v>1142774</v>
-      </c>
-      <c r="C79" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>4924</v>
-      </c>
-      <c r="B80">
-        <v>8416915</v>
-      </c>
-      <c r="C80" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>4978</v>
-      </c>
-      <c r="B81">
-        <v>20231119</v>
-      </c>
-      <c r="C81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>4978</v>
-      </c>
-      <c r="B82">
-        <v>30017549</v>
-      </c>
-      <c r="C82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>4978</v>
-      </c>
-      <c r="B83">
-        <v>8608502</v>
-      </c>
-      <c r="C83" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>4978</v>
-      </c>
-      <c r="B84">
-        <v>8608491</v>
-      </c>
-      <c r="C84" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>5172</v>
-      </c>
-      <c r="B85">
-        <v>30015105</v>
-      </c>
-      <c r="C85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>5172</v>
-      </c>
-      <c r="B86">
-        <v>9410000</v>
-      </c>
-      <c r="C86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>5172</v>
-      </c>
-      <c r="B87">
-        <v>1449</v>
-      </c>
-      <c r="C87" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>5172</v>
-      </c>
-      <c r="B88">
-        <v>1366</v>
-      </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>5188</v>
-      </c>
-      <c r="B89">
-        <v>1145785</v>
-      </c>
-      <c r="C89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>5188</v>
-      </c>
-      <c r="B90">
-        <v>30057507</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>5188</v>
-      </c>
-      <c r="B91">
-        <v>1145812</v>
-      </c>
-      <c r="C91" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>5188</v>
-      </c>
-      <c r="B92">
-        <v>8396807</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>5197</v>
-      </c>
-      <c r="B93">
-        <v>6027215</v>
-      </c>
-      <c r="C93" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>5197</v>
-      </c>
-      <c r="B94">
-        <v>914882</v>
-      </c>
-      <c r="C94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>5197</v>
-      </c>
-      <c r="B95">
-        <v>9941956</v>
-      </c>
-      <c r="C95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>5197</v>
-      </c>
-      <c r="B96">
-        <v>20230538</v>
-      </c>
-      <c r="C96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>5232</v>
-      </c>
-      <c r="B97">
-        <v>111863</v>
-      </c>
-      <c r="C97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>5232</v>
-      </c>
-      <c r="B98">
-        <v>5413270</v>
-      </c>
-      <c r="C98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>5232</v>
-      </c>
-      <c r="B99">
-        <v>444763</v>
-      </c>
-      <c r="C99" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>5232</v>
-      </c>
-      <c r="B100">
-        <v>5413251</v>
-      </c>
-      <c r="C100" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>5390</v>
-      </c>
-      <c r="B101">
-        <v>14037089</v>
-      </c>
-      <c r="C101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>5390</v>
-      </c>
-      <c r="B102">
-        <v>30017572</v>
-      </c>
-      <c r="C102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>5390</v>
-      </c>
-      <c r="B103">
-        <v>8608491</v>
-      </c>
-      <c r="C103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>5390</v>
-      </c>
-      <c r="B104">
-        <v>10663266</v>
-      </c>
-      <c r="C104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>5450</v>
-      </c>
-      <c r="B105">
-        <v>908438</v>
-      </c>
-      <c r="C105" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>5450</v>
-      </c>
-      <c r="B106">
-        <v>20059766</v>
-      </c>
-      <c r="C106" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>5450</v>
-      </c>
-      <c r="B107">
-        <v>908459</v>
-      </c>
-      <c r="C107" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>5450</v>
-      </c>
-      <c r="B108">
-        <v>20059760</v>
-      </c>
-      <c r="C108" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>5586</v>
-      </c>
-      <c r="B109">
-        <v>113237</v>
-      </c>
-      <c r="C109" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>5586</v>
-      </c>
-      <c r="B110">
-        <v>113254</v>
-      </c>
-      <c r="C110" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>5586</v>
-      </c>
-      <c r="B111">
-        <v>113240</v>
-      </c>
-      <c r="C111" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>5586</v>
-      </c>
-      <c r="B112">
-        <v>2286552</v>
-      </c>
-      <c r="C112" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>5600</v>
-      </c>
-      <c r="B113">
-        <v>111501</v>
-      </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>5600</v>
-      </c>
-      <c r="B114">
-        <v>6674318</v>
-      </c>
-      <c r="C114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>5600</v>
-      </c>
-      <c r="B115">
-        <v>111591</v>
-      </c>
-      <c r="C115" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>5600</v>
-      </c>
-      <c r="B116">
-        <v>111495</v>
-      </c>
-      <c r="C116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>5614</v>
-      </c>
-      <c r="B117">
-        <v>12189729</v>
-      </c>
-      <c r="C117" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>5614</v>
-      </c>
-      <c r="B118">
-        <v>14014172</v>
-      </c>
-      <c r="C118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>5614</v>
-      </c>
-      <c r="B119">
-        <v>14014159</v>
-      </c>
-      <c r="C119" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>5614</v>
-      </c>
-      <c r="B120">
-        <v>1143284</v>
-      </c>
-      <c r="C120" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>5693</v>
-      </c>
-      <c r="B121">
-        <v>9340537</v>
-      </c>
-      <c r="C121" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>5693</v>
-      </c>
-      <c r="B122">
-        <v>4684751</v>
-      </c>
-      <c r="C122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>5693</v>
-      </c>
-      <c r="B123">
-        <v>110316</v>
-      </c>
-      <c r="C123" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>5693</v>
-      </c>
-      <c r="B124">
-        <v>110270</v>
-      </c>
-      <c r="C124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>5865</v>
-      </c>
-      <c r="B125">
-        <v>8127</v>
-      </c>
-      <c r="C125" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>5865</v>
-      </c>
-      <c r="B126">
-        <v>14067359</v>
-      </c>
-      <c r="C126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>5865</v>
-      </c>
-      <c r="B127">
-        <v>8128</v>
-      </c>
-      <c r="C127" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>5865</v>
-      </c>
-      <c r="B128">
-        <v>8174</v>
-      </c>
-      <c r="C128" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>5880</v>
-      </c>
-      <c r="B129">
-        <v>20079154</v>
-      </c>
-      <c r="C129" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>5880</v>
-      </c>
-      <c r="B130">
-        <v>14066953</v>
-      </c>
-      <c r="C130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>5880</v>
-      </c>
-      <c r="B131">
-        <v>3497322</v>
-      </c>
-      <c r="C131" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>5880</v>
-      </c>
-      <c r="B132">
-        <v>7459</v>
-      </c>
-      <c r="C132" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>6181</v>
-      </c>
-      <c r="B133">
-        <v>30036320</v>
-      </c>
-      <c r="C133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>6181</v>
-      </c>
-      <c r="B134">
-        <v>1143136</v>
-      </c>
-      <c r="C134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>6181</v>
-      </c>
-      <c r="B135">
-        <v>6387985</v>
-      </c>
-      <c r="C135" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>6181</v>
-      </c>
-      <c r="B136">
-        <v>10035628</v>
-      </c>
-      <c r="C136" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>6848</v>
-      </c>
-      <c r="B137">
-        <v>10258028</v>
-      </c>
-      <c r="C137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>6848</v>
-      </c>
-      <c r="B138">
-        <v>13232840</v>
-      </c>
-      <c r="C138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>6848</v>
-      </c>
-      <c r="B139">
-        <v>2884115</v>
-      </c>
-      <c r="C139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>6848</v>
-      </c>
-      <c r="B140">
-        <v>20057357</v>
-      </c>
-      <c r="C140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>11879</v>
-      </c>
-      <c r="B141">
-        <v>14078493</v>
-      </c>
-      <c r="C141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>11879</v>
-      </c>
-      <c r="B142">
-        <v>14072838</v>
-      </c>
-      <c r="C142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>11879</v>
-      </c>
-      <c r="B143">
-        <v>8745</v>
-      </c>
-      <c r="C143" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>11879</v>
-      </c>
-      <c r="B144">
-        <v>14068812</v>
-      </c>
-      <c r="C144" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>12116</v>
-      </c>
-      <c r="B145">
-        <v>30073968</v>
-      </c>
-      <c r="C145" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>12116</v>
-      </c>
-      <c r="B146">
-        <v>14021164</v>
-      </c>
-      <c r="C146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>12116</v>
-      </c>
-      <c r="B147">
-        <v>8677216</v>
-      </c>
-      <c r="C147" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>12116</v>
-      </c>
-      <c r="B148">
-        <v>14021105</v>
-      </c>
-      <c r="C148" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>12261</v>
-      </c>
-      <c r="B149">
-        <v>10757512</v>
-      </c>
-      <c r="C149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>12261</v>
-      </c>
-      <c r="B150">
-        <v>7986338</v>
-      </c>
-      <c r="C150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>12261</v>
-      </c>
-      <c r="B151">
-        <v>14017401</v>
-      </c>
-      <c r="C151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>12261</v>
-      </c>
-      <c r="B152">
-        <v>14042376</v>
-      </c>
-      <c r="C152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>13811</v>
-      </c>
-      <c r="B153">
-        <v>1144744</v>
-      </c>
-      <c r="C153" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>13811</v>
-      </c>
-      <c r="B154">
-        <v>1144816</v>
-      </c>
-      <c r="C154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>13811</v>
-      </c>
-      <c r="B155">
-        <v>2689046</v>
-      </c>
-      <c r="C155" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>14869</v>
-      </c>
-      <c r="B156">
-        <v>7470</v>
-      </c>
-      <c r="C156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>14869</v>
-      </c>
-      <c r="B157">
-        <v>14051000</v>
-      </c>
-      <c r="C157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>14869</v>
-      </c>
-      <c r="B158">
-        <v>14050981</v>
-      </c>
-      <c r="C158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>14869</v>
-      </c>
-      <c r="B159">
-        <v>7469</v>
-      </c>
-      <c r="C159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>20298</v>
-      </c>
-      <c r="B160">
-        <v>30017463</v>
-      </c>
-      <c r="C160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>20298</v>
-      </c>
-      <c r="B161">
-        <v>14022592</v>
-      </c>
-      <c r="C161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>20298</v>
-      </c>
-      <c r="B162">
-        <v>1142199</v>
-      </c>
-      <c r="C162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>20298</v>
-      </c>
-      <c r="B163">
-        <v>1142163</v>
-      </c>
-      <c r="C163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>22714</v>
-      </c>
-      <c r="B164">
-        <v>8419</v>
-      </c>
-      <c r="C164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>22714</v>
-      </c>
-      <c r="B165">
-        <v>8594</v>
-      </c>
-      <c r="C165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>22714</v>
-      </c>
-      <c r="B166">
-        <v>30006087</v>
-      </c>
-      <c r="C166" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>22714</v>
-      </c>
-      <c r="B167">
-        <v>8417</v>
-      </c>
-      <c r="C167" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>23204</v>
-      </c>
-      <c r="B168">
-        <v>20260229</v>
-      </c>
-      <c r="C168" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>23204</v>
-      </c>
-      <c r="B169">
-        <v>1139723</v>
-      </c>
-      <c r="C169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>23204</v>
-      </c>
-      <c r="B170">
-        <v>14232499</v>
-      </c>
-      <c r="C170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>23204</v>
-      </c>
-      <c r="B171">
-        <v>20141111</v>
-      </c>
-      <c r="C171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>23331</v>
-      </c>
-      <c r="B172">
-        <v>7402</v>
-      </c>
-      <c r="C172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>23331</v>
-      </c>
-      <c r="B173">
-        <v>30017559</v>
-      </c>
-      <c r="C173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>23331</v>
-      </c>
-      <c r="B174">
-        <v>20010472</v>
-      </c>
-      <c r="C174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>23331</v>
-      </c>
-      <c r="B175">
-        <v>20010443</v>
-      </c>
-      <c r="C175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>24213</v>
-      </c>
-      <c r="B176">
-        <v>106517</v>
-      </c>
-      <c r="C176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>24213</v>
-      </c>
-      <c r="B177">
-        <v>106527</v>
-      </c>
-      <c r="C177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>24878</v>
-      </c>
-      <c r="B178">
-        <v>20111834</v>
-      </c>
-      <c r="C178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>24878</v>
-      </c>
-      <c r="B179">
-        <v>7553549</v>
-      </c>
-      <c r="C179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>24878</v>
-      </c>
-      <c r="B180">
-        <v>30075899</v>
-      </c>
-      <c r="C180" t="s">
-        <v>190</v>
-      </c>
-      <c r="P180" s="6"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>24878</v>
-      </c>
-      <c r="B181">
-        <v>3121358</v>
-      </c>
-      <c r="C181" t="s">
-        <v>191</v>
-      </c>
-      <c r="P181" s="6"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>28070</v>
-      </c>
-      <c r="B182">
-        <v>14016102</v>
-      </c>
-      <c r="C182" t="s">
-        <v>188</v>
-      </c>
-      <c r="P182" s="6"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>28070</v>
-      </c>
-      <c r="B183">
-        <v>14016124</v>
-      </c>
-      <c r="C183" t="s">
-        <v>189</v>
-      </c>
-      <c r="P183" s="6"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>28070</v>
-      </c>
-      <c r="B184">
-        <v>1140012</v>
-      </c>
-      <c r="C184" t="s">
-        <v>190</v>
-      </c>
-      <c r="P184" s="6"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>28070</v>
-      </c>
-      <c r="B185">
-        <v>10367572</v>
-      </c>
-      <c r="C185" t="s">
-        <v>191</v>
-      </c>
-      <c r="P185" s="6"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>28071</v>
-      </c>
-      <c r="B186">
-        <v>14016094</v>
-      </c>
-      <c r="C186" t="s">
-        <v>188</v>
-      </c>
-      <c r="P186" s="6"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>28071</v>
-      </c>
-      <c r="B187">
-        <v>1140362</v>
-      </c>
-      <c r="C187" t="s">
-        <v>189</v>
-      </c>
-      <c r="P187" s="6"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>28071</v>
-      </c>
-      <c r="B188">
-        <v>1140029</v>
-      </c>
-      <c r="C188" t="s">
-        <v>190</v>
-      </c>
-      <c r="P188" s="6"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>28071</v>
-      </c>
-      <c r="B189">
-        <v>1140012</v>
-      </c>
-      <c r="C189" t="s">
-        <v>191</v>
-      </c>
-      <c r="P189" s="6"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>28281</v>
-      </c>
-      <c r="B190">
-        <v>1116</v>
-      </c>
-      <c r="C190" t="s">
-        <v>188</v>
-      </c>
-      <c r="P190" s="6"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>28281</v>
-      </c>
-      <c r="B191">
-        <v>20041963</v>
-      </c>
-      <c r="C191" t="s">
-        <v>189</v>
-      </c>
-      <c r="P191" s="6"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>28281</v>
-      </c>
-      <c r="B192">
-        <v>1133</v>
-      </c>
-      <c r="C192" t="s">
-        <v>190</v>
-      </c>
-      <c r="P192" s="6"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>28281</v>
-      </c>
-      <c r="B193">
-        <v>3232748</v>
-      </c>
-      <c r="C193" t="s">
-        <v>191</v>
-      </c>
-      <c r="P193" s="6"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>30280</v>
-      </c>
-      <c r="B194">
-        <v>112961</v>
-      </c>
-      <c r="C194" t="s">
-        <v>188</v>
-      </c>
-      <c r="P194" s="6"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>30280</v>
-      </c>
-      <c r="B195">
-        <v>8237825</v>
-      </c>
-      <c r="C195" t="s">
-        <v>189</v>
-      </c>
-      <c r="P195" s="6"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>30280</v>
-      </c>
-      <c r="B196">
-        <v>8237684</v>
-      </c>
-      <c r="C196" t="s">
-        <v>190</v>
-      </c>
-      <c r="P196" s="6"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>30280</v>
-      </c>
-      <c r="B197">
-        <v>4819765</v>
-      </c>
-      <c r="C197" t="s">
-        <v>191</v>
-      </c>
-      <c r="R197" s="6"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>30295</v>
-      </c>
-      <c r="B198">
-        <v>112937</v>
-      </c>
-      <c r="C198" t="s">
-        <v>188</v>
-      </c>
-      <c r="R198" s="6"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>30295</v>
-      </c>
-      <c r="B199">
-        <v>112979</v>
-      </c>
-      <c r="C199" t="s">
-        <v>189</v>
-      </c>
-      <c r="R199" s="6"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>30295</v>
-      </c>
-      <c r="B200">
-        <v>112943</v>
-      </c>
-      <c r="C200" t="s">
-        <v>190</v>
-      </c>
-      <c r="R200" s="6"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>30295</v>
-      </c>
-      <c r="B201">
-        <v>112936</v>
-      </c>
-      <c r="C201" t="s">
-        <v>191</v>
-      </c>
-      <c r="R201" s="6"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>31501</v>
-      </c>
-      <c r="B202">
-        <v>14073965</v>
-      </c>
-      <c r="C202" t="s">
-        <v>190</v>
-      </c>
-      <c r="R202" s="6"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>31501</v>
-      </c>
-      <c r="B203">
-        <v>14073964</v>
-      </c>
-      <c r="C203" t="s">
-        <v>191</v>
-      </c>
-      <c r="R203" s="6"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>32574</v>
-      </c>
-      <c r="B204">
-        <v>14022569</v>
-      </c>
-      <c r="C204" t="s">
-        <v>188</v>
-      </c>
-      <c r="R204" s="6"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>32574</v>
-      </c>
-      <c r="B205">
-        <v>14171638</v>
-      </c>
-      <c r="C205" t="s">
-        <v>189</v>
-      </c>
-      <c r="R205" s="6"/>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>32574</v>
-      </c>
-      <c r="B206">
-        <v>14171607</v>
-      </c>
-      <c r="C206" t="s">
-        <v>190</v>
-      </c>
-      <c r="R206" s="6"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>32574</v>
-      </c>
-      <c r="B207">
-        <v>8407995</v>
-      </c>
-      <c r="C207" t="s">
-        <v>191</v>
-      </c>
-      <c r="R207" s="6"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>32575</v>
-      </c>
-      <c r="B208">
-        <v>14016751</v>
-      </c>
-      <c r="C208" t="s">
-        <v>188</v>
-      </c>
-      <c r="R208" s="6"/>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>32575</v>
-      </c>
-      <c r="B209">
-        <v>20080665</v>
-      </c>
-      <c r="C209" t="s">
-        <v>189</v>
-      </c>
-      <c r="R209" s="6"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>32575</v>
-      </c>
-      <c r="B210">
-        <v>14064632</v>
-      </c>
-      <c r="C210" t="s">
-        <v>190</v>
-      </c>
-      <c r="R210" s="6"/>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>32575</v>
-      </c>
-      <c r="B211">
-        <v>14016798</v>
-      </c>
-      <c r="C211" t="s">
-        <v>191</v>
-      </c>
-      <c r="R211" s="6"/>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>35205</v>
-      </c>
-      <c r="B212">
-        <v>30023599</v>
-      </c>
-      <c r="C212" t="s">
-        <v>188</v>
-      </c>
-      <c r="R212" s="6"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>35205</v>
-      </c>
-      <c r="B213">
-        <v>30023585</v>
-      </c>
-      <c r="C213" t="s">
-        <v>189</v>
-      </c>
-      <c r="R213" s="6"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>36477</v>
-      </c>
-      <c r="B214">
-        <v>8824030</v>
-      </c>
-      <c r="C214" t="s">
-        <v>188</v>
-      </c>
-      <c r="R214" s="6"/>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>36477</v>
-      </c>
-      <c r="B215">
-        <v>7862433</v>
-      </c>
-      <c r="C215" t="s">
-        <v>189</v>
-      </c>
-      <c r="R215" s="6"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>36477</v>
-      </c>
-      <c r="B216">
-        <v>6238151</v>
-      </c>
-      <c r="C216" t="s">
-        <v>190</v>
-      </c>
-      <c r="R216" s="6"/>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>36477</v>
-      </c>
-      <c r="B217">
-        <v>6195239</v>
-      </c>
-      <c r="C217" t="s">
-        <v>191</v>
-      </c>
-      <c r="R217" s="6"/>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>37865</v>
-      </c>
-      <c r="B218">
-        <v>107624</v>
-      </c>
-      <c r="C218" t="s">
-        <v>188</v>
-      </c>
-      <c r="R218" s="6"/>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>37865</v>
-      </c>
-      <c r="B219">
-        <v>107695</v>
-      </c>
-      <c r="C219" t="s">
-        <v>189</v>
-      </c>
-      <c r="R219" s="6"/>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>37865</v>
-      </c>
-      <c r="B220">
-        <v>107682</v>
-      </c>
-      <c r="C220" t="s">
-        <v>190</v>
-      </c>
-      <c r="R220" s="6"/>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>37865</v>
-      </c>
-      <c r="B221">
-        <v>11466889</v>
-      </c>
-      <c r="C221" t="s">
-        <v>191</v>
-      </c>
-      <c r="R221" s="6"/>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>37875</v>
-      </c>
-      <c r="B222">
-        <v>112675</v>
-      </c>
-      <c r="C222" t="s">
-        <v>188</v>
-      </c>
-      <c r="R222" s="6"/>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>37875</v>
-      </c>
-      <c r="B223">
-        <v>2312030</v>
-      </c>
-      <c r="C223" t="s">
-        <v>189</v>
-      </c>
-      <c r="R223" s="6"/>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>37875</v>
-      </c>
-      <c r="B224">
-        <v>112691</v>
-      </c>
-      <c r="C224" t="s">
-        <v>190</v>
-      </c>
-      <c r="R224" s="6"/>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>37875</v>
-      </c>
-      <c r="B225">
-        <v>112674</v>
-      </c>
-      <c r="C225" t="s">
-        <v>191</v>
-      </c>
-      <c r="R225" s="6"/>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R226" s="6"/>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R227" s="6"/>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R228" s="6"/>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R229" s="6"/>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R230" s="6"/>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R231" s="6"/>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R232" s="6"/>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R233" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
